--- a/CRC Data/CRC Estimate Function Inputs/Winter/Closed_Areas_Inputs_Winter.xlsx
+++ b/CRC Data/CRC Estimate Function Inputs/Winter/Closed_Areas_Inputs_Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa.sharepoint.com/sites/DFW-TeamFPCrustyAll/Shared Documents/Recreational Fisheries/Catch Memos/CRC Data Analysis/CRC Data/CRC Estimate Function Inputs/Winter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{0AAAB718-3C1F-48EB-9AC1-010CF8C528ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762AFD49-D7AB-490D-9AA3-9778A1E9E09C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{0AAAB718-3C1F-48EB-9AC1-010CF8C528ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E745FE78-B17B-4FF5-87DE-5EA307014234}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="1356" windowWidth="17820" windowHeight="10572" xr2:uid="{5ABAC4C7-7724-42C7-A409-45924DD52E23}"/>
+    <workbookView xWindow="4404" yWindow="528" windowWidth="16212" windowHeight="11832" xr2:uid="{5ABAC4C7-7724-42C7-A409-45924DD52E23}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="4" r:id="rId1"/>
@@ -94,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D49294-5F74-46CC-A62D-98D381CF1DBA}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,11 +415,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
         <v>13</v>
       </c>
     </row>
@@ -519,15 +518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE9114A9D0DECB469CD3434F7556ACE4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ecdf13fd03e578e190d1c2fef808890a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="62120a19-a38a-4c78-8e86-03b65bdcf4fa" xmlns:ns3="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d204db95074059abcc46212eb5d192a9" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -785,15 +775,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78755437-B9FF-4F7D-8315-163D528CCAEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D03133E1-C8E7-4085-96D3-7C8610FA8081}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -811,4 +802,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78755437-B9FF-4F7D-8315-163D528CCAEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>